--- a/Test case 001.xlsx
+++ b/Test case 001.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="97">
   <si>
     <t>No</t>
   </si>
@@ -66,57 +66,21 @@
     <t>attach file to message</t>
   </si>
   <si>
-    <t>4. Click "clip" button</t>
-  </si>
-  <si>
-    <t>5. Select file and click "open" button.</t>
-  </si>
-  <si>
-    <t>6. Click "send" button</t>
-  </si>
-  <si>
     <t>Tc 003</t>
   </si>
   <si>
     <t>Change font size</t>
   </si>
   <si>
-    <t>5. Click "A" button</t>
-  </si>
-  <si>
-    <t>6. Click "tT" button</t>
-  </si>
-  <si>
-    <t>7. Change font size</t>
-  </si>
-  <si>
-    <t>8. Click "send" button</t>
-  </si>
-  <si>
     <t>Tc 004</t>
   </si>
   <si>
     <t>insert photo</t>
   </si>
   <si>
-    <t>4. Click "insert photo" button</t>
-  </si>
-  <si>
-    <t>5. Select photo and click "insert"</t>
-  </si>
-  <si>
     <t>Tc 005</t>
   </si>
   <si>
-    <t>5. Click "A" button - Click " formatting options" button</t>
-  </si>
-  <si>
-    <t>6. Click "A" button - Click " text color" button</t>
-  </si>
-  <si>
-    <t>7. Change font color</t>
-  </si>
-  <si>
     <t>Tc 006</t>
   </si>
   <si>
@@ -162,9 +126,6 @@
     <t>1. Click "inbox' button</t>
   </si>
   <si>
-    <t>2. mark letter click "star" button</t>
-  </si>
-  <si>
     <t>Tc 009</t>
   </si>
   <si>
@@ -174,21 +135,12 @@
     <t>2. Select incoming letter</t>
   </si>
   <si>
-    <t>3. Click "Report spam" button</t>
-  </si>
-  <si>
-    <t>4. In the window that opens, click "report spam" button</t>
-  </si>
-  <si>
     <t>Tc 010</t>
   </si>
   <si>
     <t>add letter to category "work"</t>
   </si>
   <si>
-    <t>3. Click "Move to" button</t>
-  </si>
-  <si>
     <t>4. Select category "Work"</t>
   </si>
   <si>
@@ -198,16 +150,163 @@
     <t>Delete letter</t>
   </si>
   <si>
-    <t>3. Click "Delete" button</t>
-  </si>
-  <si>
     <t>Tc 012</t>
   </si>
   <si>
     <t>Drafts</t>
   </si>
   <si>
-    <t>5. Click "Save and close" button</t>
+    <t>new message window opened</t>
+  </si>
+  <si>
+    <t>2. Select file and click "open" button.</t>
+  </si>
+  <si>
+    <t>3. Click "send" button</t>
+  </si>
+  <si>
+    <t>3. Change font size</t>
+  </si>
+  <si>
+    <t>4. Click "send" button</t>
+  </si>
+  <si>
+    <t>1. Click "Formatting options" icon</t>
+  </si>
+  <si>
+    <t>2. Click "Size" icon</t>
+  </si>
+  <si>
+    <t>2. Select photo and click "insert"</t>
+  </si>
+  <si>
+    <t>3. Change font color</t>
+  </si>
+  <si>
+    <t>1. Click "insert photo" icon</t>
+  </si>
+  <si>
+    <t>1. Click " formatting options" icon</t>
+  </si>
+  <si>
+    <t>2. Click " text color" icon</t>
+  </si>
+  <si>
+    <t>2. mark letter click "star" icon</t>
+  </si>
+  <si>
+    <t>3. Click "Report spam" icon</t>
+  </si>
+  <si>
+    <t>3. Click "Move to" icon</t>
+  </si>
+  <si>
+    <t>3. Click "Delete" icon</t>
+  </si>
+  <si>
+    <t>1. Click "attach file" icon</t>
+  </si>
+  <si>
+    <t>1. the image selection window opens</t>
+  </si>
+  <si>
+    <t>5. Message sent</t>
+  </si>
+  <si>
+    <t>1.  new message window has opened.</t>
+  </si>
+  <si>
+    <t>2. field is filled.</t>
+  </si>
+  <si>
+    <t>3. field is filled.</t>
+  </si>
+  <si>
+    <t>4. field is filled.</t>
+  </si>
+  <si>
+    <t>1. a file selection window opens.</t>
+  </si>
+  <si>
+    <t>2. file attached</t>
+  </si>
+  <si>
+    <t>3. Message sent</t>
+  </si>
+  <si>
+    <t>1. Formatting options panel has opened</t>
+  </si>
+  <si>
+    <t>2. a size selection window appears</t>
+  </si>
+  <si>
+    <t>3. font size has changed</t>
+  </si>
+  <si>
+    <t>4. Message sent</t>
+  </si>
+  <si>
+    <t>2. image inserted</t>
+  </si>
+  <si>
+    <t>2. a color palette has opened</t>
+  </si>
+  <si>
+    <t>3.font color has changed.</t>
+  </si>
+  <si>
+    <t>1. a popup window has opened</t>
+  </si>
+  <si>
+    <t>2. Settings menu opens</t>
+  </si>
+  <si>
+    <t>3. selected language</t>
+  </si>
+  <si>
+    <t>4. language changed</t>
+  </si>
+  <si>
+    <t>3. The picture selection window has opened</t>
+  </si>
+  <si>
+    <t>4. opened a window with pictures</t>
+  </si>
+  <si>
+    <t>5. picture is loading</t>
+  </si>
+  <si>
+    <t>6. picture changed</t>
+  </si>
+  <si>
+    <t>1. Opened inbox</t>
+  </si>
+  <si>
+    <t>2. letter marked with a star</t>
+  </si>
+  <si>
+    <t>2. opened the incoming letter</t>
+  </si>
+  <si>
+    <t>3. letter marked as spam</t>
+  </si>
+  <si>
+    <t>4. In the window that opens, click "report spam" button?</t>
+  </si>
+  <si>
+    <t>3. opening a selection of categories</t>
+  </si>
+  <si>
+    <t>4. letter added to work category</t>
+  </si>
+  <si>
+    <t>3. the letter was deleted</t>
+  </si>
+  <si>
+    <t>1. Click "Save and close" button</t>
+  </si>
+  <si>
+    <t>1. letter added to drafts</t>
   </si>
 </sst>
 </file>
@@ -563,18 +662,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
     <col min="4" max="4" width="60.5703125" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -611,26 +710,41 @@
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="D5" t="s">
         <v>12</v>
       </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="D6" t="s">
         <v>13</v>
       </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
@@ -640,376 +754,400 @@
         <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="D9" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="D13" t="s">
-        <v>18</v>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="D16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="D17" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="D18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="D20" t="s">
+      <c r="B40" s="5" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="D26" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="D28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="D33" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="D35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="D36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="D37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="D38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="D41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="D42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="D43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="D46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="D47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>29</v>
+      </c>
+      <c r="E47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="D48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="D49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>31</v>
+      </c>
+      <c r="E49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="D50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="E50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="E52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="D53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>58</v>
+      </c>
+      <c r="E53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="E55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="D56" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="D57" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>59</v>
+      </c>
+      <c r="E57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="D58" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="E60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="D61" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="D62" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>60</v>
+      </c>
+      <c r="E62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="D63" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>41</v>
+      </c>
+      <c r="E63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="E65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="D66" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="D67" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>61</v>
+      </c>
+      <c r="E67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="D70" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="D71" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="D72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="D73" t="s">
-        <v>63</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D69" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="D71" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test case 001.xlsx
+++ b/Test case 001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="405" windowWidth="28455" windowHeight="14025"/>
+    <workbookView xWindow="360" yWindow="405" windowWidth="28455" windowHeight="14025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="111">
   <si>
     <t>No</t>
   </si>
@@ -307,13 +307,55 @@
   </si>
   <si>
     <t>1. letter added to drafts</t>
+  </si>
+  <si>
+    <t>req no</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Important messages should be marked with star symbol</t>
+  </si>
+  <si>
+    <t>the user should easily create a new letter</t>
+  </si>
+  <si>
+    <t>letter text should be edited in the new message window</t>
+  </si>
+  <si>
+    <t>images must be attached to the letter</t>
+  </si>
+  <si>
+    <t>links should be attached to the letter</t>
+  </si>
+  <si>
+    <t>the letter should be added to drafts</t>
+  </si>
+  <si>
+    <t>letters must be sorted by importance</t>
+  </si>
+  <si>
+    <t>letters must be added to categories</t>
+  </si>
+  <si>
+    <t>the letter should be added to spam</t>
+  </si>
+  <si>
+    <t>All letters must be highlighted with one button</t>
+  </si>
+  <si>
+    <t>Read letters should be marked with a different color</t>
+  </si>
+  <si>
+    <t>Letters must be deleted in the trash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +371,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -351,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -368,6 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -664,7 +714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
@@ -1156,13 +1206,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="64.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
